--- a/decision/i_Decision Summary_adv_t1.xlsx
+++ b/decision/i_Decision Summary_adv_t1.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sffaaa</t>
+          <t>ATMA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caster</t>
+          <t>Camst</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rproj_3</t>
+          <t>Rproj_5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,27 +491,27 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>234</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>546</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>234</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>645</t>
         </is>
       </c>
     </row>

--- a/decision/i_Decision Summary_adv_t1.xlsx
+++ b/decision/i_Decision Summary_adv_t1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camst</t>
+          <t>Baller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rproj_5</t>
+          <t>Rproj_3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -496,22 +496,69 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>123</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>XYZ</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Baller</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Rproj_3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Devices</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
